--- a/data/featured_alumni.xlsx
+++ b/data/featured_alumni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alumni\eee\alumni-eee\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alumni\english\eee-alumni\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A6726-61EF-45F4-BA70-517F545E6D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78A5AA4-3B5E-4FEA-9F1B-7DFE82CD068F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -61,142 +61,52 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Ms. Sudeshna khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric System Protection Engineer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIPSCO, USA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suparna_0086@yahoo.com  </t>
-  </si>
-  <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/uddin-salam-1</t>
-  </si>
-  <si>
-    <t>https://facebook.com/uddin-salam.1</t>
-  </si>
-  <si>
-    <t>https://instagram.com/uddin-salam_1</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Ms. Farzana Yesmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8th  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Engineer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infineon AG Technology, Germany  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">farzana.yesmin.rub@gmail.com  </t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/hassan-hassan-2</t>
-  </si>
-  <si>
-    <t>https://facebook.com/hassan-hassan.2</t>
-  </si>
-  <si>
-    <t>https://instagram.com/hassan-hassan_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Md Rashedul Hasan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7th  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data scientist  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airbus Engineering, Germany  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdrashhasan@gmail.com  </t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/hassan-mahmud-3</t>
-  </si>
-  <si>
-    <t>https://facebook.com/hassan-mahmud.3</t>
-  </si>
-  <si>
-    <t>https://instagram.com/hassan-mahmud_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dr. Tawheed Kibria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application Engineer  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veeco Instrument (Japan)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kibria.tawheed@gmail.com  </t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/islam-roy-4</t>
-  </si>
-  <si>
-    <t>https://facebook.com/islam-roy.4</t>
-  </si>
-  <si>
-    <t>https://instagram.com/islam-roy_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Ashiqur Rahman Ashik,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narayanganj Palli Bidyut Samity-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashikeee69@gmail.com  </t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/khatun-chowdhury-5</t>
-  </si>
-  <si>
-    <t>https://facebook.com/khatun-chowdhury.5</t>
-  </si>
-  <si>
-    <t>https://instagram.com/khatun-chowdhury_5</t>
-  </si>
-  <si>
-    <t>Mr. A S M Tasfir Ether </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh Rural Electrification Board  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tasfir.ether25@gmail.com  </t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <t>Sabah Bin Hossain</t>
+  </si>
+  <si>
+    <t>Nafis Kamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samina Binte Ayub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd  </t>
+  </si>
+  <si>
+    <t>Account Supervisor</t>
+  </si>
+  <si>
+    <t>X Solutions Ltd.</t>
+  </si>
+  <si>
+    <t>rudraw94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6th  </t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>United International University (UIU)</t>
+  </si>
+  <si>
+    <t>nafiskamal93@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin Officer</t>
+  </si>
+  <si>
+    <t>TigerIT Bangladesh Ltd.</t>
+  </si>
+  <si>
+    <t>bintesamina@gmail.com</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -232,8 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,296 +486,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1">
+        <v>98</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>95</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M1 A6:L6 A2:L2 A3:L3 A4:L4 A5:L5 A7:J7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>